--- a/lecturer.xlsx
+++ b/lecturer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saad\OneDrive\Desktop\Netwaciila\Projets\EmploiDuTemps\AlgorithmeGénetique\Autres\calendar_proble_solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2FD2AA-58E8-49FE-8B71-F7D539FA809E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468BCFFD-4A94-431C-8F02-9E7DBD71CFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>chimie1,chimie2</t>
   </si>
   <si>
-    <t>base de donnee</t>
-  </si>
-  <si>
     <t>id_lecturer</t>
   </si>
   <si>
@@ -78,16 +75,19 @@
     <t>disponibilite</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6,23</t>
-  </si>
-  <si>
-    <t>0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23</t>
-  </si>
-  <si>
-    <t>4,5,7,10,12,14,15,16</t>
-  </si>
-  <si>
     <t>0,1,2,3,4,5,19,20,21,22,23</t>
+  </si>
+  <si>
+    <t>base de donnees</t>
+  </si>
+  <si>
+    <t>0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,23,30,31,32,33,37,39,40,41,42,43</t>
+  </si>
+  <si>
+    <t>4,5,7,10,12,14,15,16,20,32,33,41</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,19 +428,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -451,7 +451,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -468,13 +468,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -485,13 +485,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -502,13 +502,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/lecturer.xlsx
+++ b/lecturer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saad\OneDrive\Desktop\Netwaciila\Projets\EmploiDuTemps\AlgorithmeGénetique\Autres\calendar_proble_solving\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buddha\Desktop\calendar_proble_solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468BCFFD-4A94-431C-8F02-9E7DBD71CFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403F5C48-E662-4AB7-9A2D-90C994767E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
   <si>
     <t>name</t>
   </si>
@@ -88,6 +88,39 @@
   </si>
   <si>
     <t>4,5,7,10,12,14,15,16,20,32,33,41</t>
+  </si>
+  <si>
+    <t>prof 4</t>
+  </si>
+  <si>
+    <t>prof 5</t>
+  </si>
+  <si>
+    <t>prof 6</t>
+  </si>
+  <si>
+    <t>prof 7</t>
+  </si>
+  <si>
+    <t>prof 8</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9</t>
+  </si>
+  <si>
+    <t>prof 9</t>
+  </si>
+  <si>
+    <t>prof 10</t>
+  </si>
+  <si>
+    <t>prof 11</t>
+  </si>
+  <si>
+    <t>prof 12</t>
+  </si>
+  <si>
+    <t>prof 13</t>
   </si>
 </sst>
 </file>
@@ -412,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,6 +544,176 @@
         <v>16</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
